--- a/similarities/split_global/harmonic_similarity_timestamps_241.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_241.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,702 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:59.600000', '0:01:13.880000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=3.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=59.6']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_45</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>['E:maj/B', 'B:7', 'E:maj/B']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'E/4']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:11.260000', '0:00:13.220000')]</t>
+          <t>('0:01:24.960000', '0:01:31.380000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:48.277000', '0:00:54.481000')]</t>
+          <t>('0:01:27.060000', '0:01:32.420000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=11.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=84.96</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=48.277']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-45#t=87.06</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>jaah_73</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['E:dim7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['D:dim7', 'Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:11.060000', '0:00:18.800000')]</t>
+          <t>('0:00:18.700000', '0:00:20.830000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:36.200000', '0:01:53.760000')]</t>
+          <t>('0:01:02.360000', '0:01:08.270000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=11.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=18.7</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=96.2']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=62.36</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Eb', 'Ab', 'Eb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:37.700000', '0:00:56.260000')]</t>
+          <t>('0:02:16.070000', '0:02:21.510000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=37.7']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=136.07</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=0.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>isophonics_47</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:07.800000', '0:00:13.900000')]</t>
+          <t>('0:00:01.302038', '0:00:05.439841')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:01.420000', '0:00:07.080000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=7.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_80</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj'], ['A:min', 'E:7', 'A:min']]</t>
+          <t>['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj/A#'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['Ab', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:54.300000', '0:02:03.140000'), ('0:00:19.820000', '0:00:29.100000')]</t>
+          <t>('0:01:06.880000', '0:01:19')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:36.120000', '0:01:43.440000'), ('0:02:10.840000', '0:02:15.980000')]</t>
+          <t>('0:02:09.720000', '0:02:17.860000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=114.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=19.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.88</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=96.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-80#t=130.84']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=129.72</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.336043', '0:00:30.271443')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:12.380000', '0:02:14.600000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=13.336043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=132.38']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_133</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['F#:min', 'B:min/F#', 'F#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>['C:min', 'F:min', 'C:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
+          <t>('0:00:00.380000', '0:00:03.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:04.280000', '0:01:14.480000')]</t>
+          <t>('0:00:13.648526', '0:00:21.125350')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=62.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=0.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=64.28']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=13.648526</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000')]</t>
+          <t>('0:00:28.640000', '0:01:05.900000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:47.680000', '0:00:51.980000')]</t>
+          <t>('0:00:08.540000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-116#t=28.64</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=47.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_172</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:00.680000', '0:00:02.980000')]</t>
+          <t>('0:00:49.280000', '0:00:56.880000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:02:34.020000', '0:02:39.240000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:26.041712', '0:00:37.106020')]</t>
+          <t>('0:01:20.420000', '0:01:24.640000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-182#t=154.02</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=26.041712']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-160#t=80.42</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:06.920000', '0:01:24.540000')]</t>
+          <t>('0:00:39.840000', '0:00:47.280000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:53.020000', '0:01:54.760000')]</t>
+          <t>('0:00:41.380000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=66.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-106#t=39.84</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=113.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.38</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['A#/F', 'F:7', 'A#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb', 'Eb', 'Bb/3']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:08.960000', '0:00:12.040000')]</t>
+          <t>('0:04:31.220000', '0:04:38.420000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:18.253000', '0:00:23.992000')]</t>
+          <t>('0:00:41.700000', '0:00:57.940000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=8.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=271.22</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=18.253']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=41.7</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>schubert-winterreise_112</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min7', 'F:7', 'Bb', 'Bb:7/3']]</t>
+          <t>['A#:7', 'D#:maj', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb:7']]</t>
+          <t>['C:7', 'F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:09.660000', '0:00:11.390000')]</t>
+          <t>('0:01:01.760000', '0:01:09.340000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:17.680000', '0:00:20.840000')]</t>
+          <t>('0:00:49.610000', '0:00:59.750000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-73#t=9.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=17.68']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=49.61</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_52</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['E:min', 'D', 'A']]</t>
+          <t>['G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'A#:maj', 'D#:maj'], ['F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
+          <t>['C:maj', 'G:maj', 'C:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.408834', '0:00:16.560579'), ('0:00:16.560579', '0:00:21.866339')]</t>
+          <t>('0:01:07.100430', '0:01:15.018435')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.780000', '0:00:19.180000'), ('0:01:19.720000', '0:01:24.580000')]</t>
+          <t>('0:00:10.460000', '0:00:12.580000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=9.408834', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=16.560579']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=79.72']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
